--- a/Spotify Analytics/kor_features.xlsx
+++ b/Spotify Analytics/kor_features.xlsx
@@ -100,15 +100,15 @@
     <t>BLACKPINK</t>
   </si>
   <si>
+    <t>BOL4</t>
+  </si>
+  <si>
     <t>BTS</t>
   </si>
   <si>
     <t>BTS, Halsey</t>
   </si>
   <si>
-    <t>Bolbbalgan4</t>
-  </si>
-  <si>
     <t>CHEEZE</t>
   </si>
   <si>
@@ -166,7 +166,7 @@
     <t>Suzy, BAEKHYUN</t>
   </si>
   <si>
-    <t>T-ara</t>
+    <t>T-ARA</t>
   </si>
   <si>
     <t>TAEYANG</t>
@@ -235,6 +235,15 @@
     <t>As If It's Your Last</t>
   </si>
   <si>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>Galaxy 우주를 줄게</t>
+  </si>
+  <si>
+    <t>Some</t>
+  </si>
+  <si>
     <t>Blood Sweat &amp; Tears</t>
   </si>
   <si>
@@ -256,15 +265,6 @@
     <t>Boy With Luv (feat. Halsey)</t>
   </si>
   <si>
-    <t>Bom</t>
-  </si>
-  <si>
-    <t>Galaxy 우주를 줄게</t>
-  </si>
-  <si>
-    <t>Some</t>
-  </si>
-  <si>
     <t>어떨까 넌</t>
   </si>
   <si>
@@ -490,6 +490,15 @@
     <t>1Zyd6zQnC6XIIzmg3hP7Ot</t>
   </si>
   <si>
+    <t>0jnUqXkSxqe8hLkPVfzIjz</t>
+  </si>
+  <si>
+    <t>6T3Mlx5fr71sm0u1YDAb4R</t>
+  </si>
+  <si>
+    <t>3mmLyEhphJAaW7hyEXAD8l</t>
+  </si>
+  <si>
     <t>5RGf8qn1TBWVplLyyKUsuV</t>
   </si>
   <si>
@@ -511,15 +520,6 @@
     <t>5KawlOMHjWeUjQtnuRs22c</t>
   </si>
   <si>
-    <t>0jnUqXkSxqe8hLkPVfzIjz</t>
-  </si>
-  <si>
-    <t>6T3Mlx5fr71sm0u1YDAb4R</t>
-  </si>
-  <si>
-    <t>3mmLyEhphJAaW7hyEXAD8l</t>
-  </si>
-  <si>
     <t>3BFNvmKRikXQavhE4lugbz</t>
   </si>
   <si>
@@ -742,6 +742,15 @@
     <t>spotify:track:1Zyd6zQnC6XIIzmg3hP7Ot</t>
   </si>
   <si>
+    <t>spotify:track:0jnUqXkSxqe8hLkPVfzIjz</t>
+  </si>
+  <si>
+    <t>spotify:track:6T3Mlx5fr71sm0u1YDAb4R</t>
+  </si>
+  <si>
+    <t>spotify:track:3mmLyEhphJAaW7hyEXAD8l</t>
+  </si>
+  <si>
     <t>spotify:track:5RGf8qn1TBWVplLyyKUsuV</t>
   </si>
   <si>
@@ -763,15 +772,6 @@
     <t>spotify:track:5KawlOMHjWeUjQtnuRs22c</t>
   </si>
   <si>
-    <t>spotify:track:0jnUqXkSxqe8hLkPVfzIjz</t>
-  </si>
-  <si>
-    <t>spotify:track:6T3Mlx5fr71sm0u1YDAb4R</t>
-  </si>
-  <si>
-    <t>spotify:track:3mmLyEhphJAaW7hyEXAD8l</t>
-  </si>
-  <si>
     <t>spotify:track:3BFNvmKRikXQavhE4lugbz</t>
   </si>
   <si>
@@ -994,6 +994,15 @@
     <t>https://api.spotify.com/v1/tracks/1Zyd6zQnC6XIIzmg3hP7Ot</t>
   </si>
   <si>
+    <t>https://api.spotify.com/v1/tracks/0jnUqXkSxqe8hLkPVfzIjz</t>
+  </si>
+  <si>
+    <t>https://api.spotify.com/v1/tracks/6T3Mlx5fr71sm0u1YDAb4R</t>
+  </si>
+  <si>
+    <t>https://api.spotify.com/v1/tracks/3mmLyEhphJAaW7hyEXAD8l</t>
+  </si>
+  <si>
     <t>https://api.spotify.com/v1/tracks/5RGf8qn1TBWVplLyyKUsuV</t>
   </si>
   <si>
@@ -1015,15 +1024,6 @@
     <t>https://api.spotify.com/v1/tracks/5KawlOMHjWeUjQtnuRs22c</t>
   </si>
   <si>
-    <t>https://api.spotify.com/v1/tracks/0jnUqXkSxqe8hLkPVfzIjz</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/6T3Mlx5fr71sm0u1YDAb4R</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/tracks/3mmLyEhphJAaW7hyEXAD8l</t>
-  </si>
-  <si>
     <t>https://api.spotify.com/v1/tracks/3BFNvmKRikXQavhE4lugbz</t>
   </si>
   <si>
@@ -1246,6 +1246,15 @@
     <t>https://api.spotify.com/v1/audio-analysis/1Zyd6zQnC6XIIzmg3hP7Ot</t>
   </si>
   <si>
+    <t>https://api.spotify.com/v1/audio-analysis/0jnUqXkSxqe8hLkPVfzIjz</t>
+  </si>
+  <si>
+    <t>https://api.spotify.com/v1/audio-analysis/6T3Mlx5fr71sm0u1YDAb4R</t>
+  </si>
+  <si>
+    <t>https://api.spotify.com/v1/audio-analysis/3mmLyEhphJAaW7hyEXAD8l</t>
+  </si>
+  <si>
     <t>https://api.spotify.com/v1/audio-analysis/5RGf8qn1TBWVplLyyKUsuV</t>
   </si>
   <si>
@@ -1265,15 +1274,6 @@
   </si>
   <si>
     <t>https://api.spotify.com/v1/audio-analysis/5KawlOMHjWeUjQtnuRs22c</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/0jnUqXkSxqe8hLkPVfzIjz</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/6T3Mlx5fr71sm0u1YDAb4R</t>
-  </si>
-  <si>
-    <t>https://api.spotify.com/v1/audio-analysis/3mmLyEhphJAaW7hyEXAD8l</t>
   </si>
   <si>
     <t>https://api.spotify.com/v1/audio-analysis/3BFNvmKRikXQavhE4lugbz</t>
@@ -1909,7 +1909,7 @@
         <v>2012</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0.8070000000000001</v>
@@ -1977,7 +1977,7 @@
         <v>2011</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>0.585</v>
@@ -2045,7 +2045,7 @@
         <v>2017</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0.767</v>
@@ -2113,7 +2113,7 @@
         <v>2019</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0.52</v>
@@ -2181,7 +2181,7 @@
         <v>2019</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0.601</v>
@@ -2249,7 +2249,7 @@
         <v>2015</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0.661</v>
@@ -2317,7 +2317,7 @@
         <v>2014</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0.758</v>
@@ -2385,7 +2385,7 @@
         <v>2014</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0.743</v>
@@ -2453,7 +2453,7 @@
         <v>2019</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0.663</v>
@@ -2521,7 +2521,7 @@
         <v>2020</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>0.619</v>
@@ -2657,7 +2657,7 @@
         <v>2016</v>
       </c>
       <c r="D13">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>0.648</v>
@@ -2793,7 +2793,7 @@
         <v>2017</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>0.786</v>
@@ -2858,43 +2858,43 @@
         <v>73</v>
       </c>
       <c r="C16">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D16">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>0.583</v>
+        <v>0.595</v>
       </c>
       <c r="F16">
-        <v>0.885</v>
+        <v>0.631</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>-3.571</v>
+        <v>-3.533</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0.106</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="K16">
-        <v>0.0244</v>
+        <v>0.539</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.357</v>
+        <v>0.0786</v>
       </c>
       <c r="N16">
-        <v>0.601</v>
+        <v>0.533</v>
       </c>
       <c r="O16">
-        <v>92.959</v>
+        <v>195.991</v>
       </c>
       <c r="P16" t="s">
         <v>143</v>
@@ -2912,7 +2912,7 @@
         <v>410</v>
       </c>
       <c r="U16">
-        <v>217052</v>
+        <v>217045</v>
       </c>
       <c r="V16">
         <v>4</v>
@@ -2926,43 +2926,43 @@
         <v>74</v>
       </c>
       <c r="C17">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D17">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E17">
-        <v>0.598</v>
+        <v>0.606</v>
       </c>
       <c r="F17">
-        <v>0.775</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-2.407</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="H17">
-        <v>-4.035</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
-        <v>0.0545</v>
+        <v>0.132</v>
       </c>
       <c r="K17">
-        <v>0.022</v>
+        <v>0.681</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0677</v>
+        <v>0.0919</v>
       </c>
       <c r="N17">
-        <v>0.6870000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="O17">
-        <v>129.819</v>
+        <v>166.024</v>
       </c>
       <c r="P17" t="s">
         <v>143</v>
@@ -2980,7 +2980,7 @@
         <v>411</v>
       </c>
       <c r="U17">
-        <v>223123</v>
+        <v>213853</v>
       </c>
       <c r="V17">
         <v>4</v>
@@ -2994,43 +2994,43 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D18">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18">
-        <v>0.637</v>
+        <v>0.659</v>
       </c>
       <c r="F18">
         <v>0.799</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>-4.519</v>
+        <v>-2.849</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0338</v>
+        <v>0.0629</v>
       </c>
       <c r="K18">
-        <v>0.394</v>
+        <v>0.417</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0921</v>
+        <v>0.0562</v>
       </c>
       <c r="N18">
-        <v>0.5620000000000001</v>
+        <v>0.782</v>
       </c>
       <c r="O18">
-        <v>104.995</v>
+        <v>103.99</v>
       </c>
       <c r="P18" t="s">
         <v>143</v>
@@ -3048,7 +3048,7 @@
         <v>412</v>
       </c>
       <c r="U18">
-        <v>228615</v>
+        <v>181373</v>
       </c>
       <c r="V18">
         <v>4</v>
@@ -3056,7 +3056,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -3065,40 +3065,40 @@
         <v>2016</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E19">
-        <v>0.475</v>
+        <v>0.583</v>
       </c>
       <c r="F19">
-        <v>0.897</v>
+        <v>0.885</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>-2.383</v>
+        <v>-3.571</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0736</v>
+        <v>0.106</v>
       </c>
       <c r="K19">
-        <v>0.0184</v>
+        <v>0.0244</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.296</v>
+        <v>0.357</v>
       </c>
       <c r="N19">
-        <v>0.642</v>
+        <v>0.601</v>
       </c>
       <c r="O19">
-        <v>78.91800000000001</v>
+        <v>92.959</v>
       </c>
       <c r="P19" t="s">
         <v>143</v>
@@ -3116,7 +3116,7 @@
         <v>413</v>
       </c>
       <c r="U19">
-        <v>210577</v>
+        <v>217052</v>
       </c>
       <c r="V19">
         <v>4</v>
@@ -3124,49 +3124,49 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
       </c>
       <c r="C20">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D20">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20">
-        <v>0.638</v>
+        <v>0.598</v>
       </c>
       <c r="F20">
-        <v>0.703</v>
+        <v>0.775</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>-7.874</v>
+        <v>-4.035</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.444</v>
+        <v>0.0545</v>
       </c>
       <c r="K20">
-        <v>0.0104</v>
+        <v>0.022</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.132</v>
+        <v>0.0677</v>
       </c>
       <c r="N20">
-        <v>0.261</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="O20">
-        <v>105.766</v>
+        <v>129.819</v>
       </c>
       <c r="P20" t="s">
         <v>143</v>
@@ -3184,7 +3184,7 @@
         <v>414</v>
       </c>
       <c r="U20">
-        <v>226321</v>
+        <v>223123</v>
       </c>
       <c r="V20">
         <v>4</v>
@@ -3192,49 +3192,49 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
       </c>
       <c r="C21">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E21">
-        <v>0.612</v>
+        <v>0.637</v>
       </c>
       <c r="F21">
-        <v>0.844</v>
+        <v>0.799</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>-4.694</v>
+        <v>-4.519</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0.0756</v>
+        <v>0.0338</v>
       </c>
       <c r="K21">
-        <v>0.142</v>
+        <v>0.394</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.287</v>
+        <v>0.0921</v>
       </c>
       <c r="N21">
-        <v>0.653</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="O21">
-        <v>134.868</v>
+        <v>104.995</v>
       </c>
       <c r="P21" t="s">
         <v>143</v>
@@ -3252,7 +3252,7 @@
         <v>415</v>
       </c>
       <c r="U21">
-        <v>196776</v>
+        <v>228615</v>
       </c>
       <c r="V21">
         <v>4</v>
@@ -3266,43 +3266,43 @@
         <v>79</v>
       </c>
       <c r="C22">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D22">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E22">
-        <v>0.645</v>
+        <v>0.475</v>
       </c>
       <c r="F22">
-        <v>0.862</v>
+        <v>0.897</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>-4.757</v>
+        <v>-2.383</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0965</v>
+        <v>0.0736</v>
       </c>
       <c r="K22">
-        <v>0.09229999999999999</v>
+        <v>0.0184</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.192</v>
+        <v>0.296</v>
       </c>
       <c r="N22">
-        <v>0.798</v>
+        <v>0.642</v>
       </c>
       <c r="O22">
-        <v>119.991</v>
+        <v>78.91800000000001</v>
       </c>
       <c r="P22" t="s">
         <v>143</v>
@@ -3320,7 +3320,7 @@
         <v>416</v>
       </c>
       <c r="U22">
-        <v>229773</v>
+        <v>210577</v>
       </c>
       <c r="V22">
         <v>4</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
@@ -3337,40 +3337,40 @@
         <v>2019</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E23">
-        <v>0.595</v>
+        <v>0.638</v>
       </c>
       <c r="F23">
-        <v>0.631</v>
+        <v>0.703</v>
       </c>
       <c r="G23">
         <v>7</v>
       </c>
       <c r="H23">
-        <v>-3.533</v>
+        <v>-7.874</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.06569999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="K23">
-        <v>0.539</v>
+        <v>0.0104</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0786</v>
+        <v>0.132</v>
       </c>
       <c r="N23">
-        <v>0.533</v>
+        <v>0.261</v>
       </c>
       <c r="O23">
-        <v>195.991</v>
+        <v>105.766</v>
       </c>
       <c r="P23" t="s">
         <v>143</v>
@@ -3388,7 +3388,7 @@
         <v>417</v>
       </c>
       <c r="U23">
-        <v>217045</v>
+        <v>226321</v>
       </c>
       <c r="V23">
         <v>4</v>
@@ -3396,49 +3396,49 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>81</v>
       </c>
       <c r="C24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24">
-        <v>0.606</v>
+        <v>0.612</v>
       </c>
       <c r="F24">
-        <v>0.8149999999999999</v>
+        <v>0.844</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>-2.407</v>
+        <v>-4.694</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.132</v>
+        <v>0.0756</v>
       </c>
       <c r="K24">
-        <v>0.681</v>
+        <v>0.142</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0919</v>
+        <v>0.287</v>
       </c>
       <c r="N24">
-        <v>0.707</v>
+        <v>0.653</v>
       </c>
       <c r="O24">
-        <v>166.024</v>
+        <v>134.868</v>
       </c>
       <c r="P24" t="s">
         <v>143</v>
@@ -3456,7 +3456,7 @@
         <v>418</v>
       </c>
       <c r="U24">
-        <v>213853</v>
+        <v>196776</v>
       </c>
       <c r="V24">
         <v>4</v>
@@ -3470,43 +3470,43 @@
         <v>82</v>
       </c>
       <c r="C25">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E25">
-        <v>0.659</v>
+        <v>0.645</v>
       </c>
       <c r="F25">
-        <v>0.799</v>
+        <v>0.862</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>-2.849</v>
+        <v>-4.757</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0629</v>
+        <v>0.0965</v>
       </c>
       <c r="K25">
-        <v>0.417</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0562</v>
+        <v>0.192</v>
       </c>
       <c r="N25">
-        <v>0.782</v>
+        <v>0.798</v>
       </c>
       <c r="O25">
-        <v>103.99</v>
+        <v>119.991</v>
       </c>
       <c r="P25" t="s">
         <v>143</v>
@@ -3524,7 +3524,7 @@
         <v>419</v>
       </c>
       <c r="U25">
-        <v>181373</v>
+        <v>229773</v>
       </c>
       <c r="V25">
         <v>4</v>
@@ -3609,7 +3609,7 @@
         <v>2019</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0.572</v>
@@ -3881,7 +3881,7 @@
         <v>2017</v>
       </c>
       <c r="D31">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>0.458</v>
@@ -3949,7 +3949,7 @@
         <v>2019</v>
       </c>
       <c r="D32">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>0.731</v>
@@ -4017,7 +4017,7 @@
         <v>2017</v>
       </c>
       <c r="D33">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33">
         <v>0.529</v>
@@ -4085,7 +4085,7 @@
         <v>2012</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0.718</v>
@@ -4153,7 +4153,7 @@
         <v>2015</v>
       </c>
       <c r="D35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35">
         <v>0.786</v>
@@ -4289,7 +4289,7 @@
         <v>2017</v>
       </c>
       <c r="D37">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E37">
         <v>0.709</v>
@@ -4357,7 +4357,7 @@
         <v>2015</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E38">
         <v>0.754</v>
@@ -4425,7 +4425,7 @@
         <v>2014</v>
       </c>
       <c r="D39">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>0.701</v>
@@ -4833,7 +4833,7 @@
         <v>2018</v>
       </c>
       <c r="D45">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E45">
         <v>0.698</v>
@@ -4901,7 +4901,7 @@
         <v>2019</v>
       </c>
       <c r="D46">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E46">
         <v>0.715</v>
@@ -4969,7 +4969,7 @@
         <v>2017</v>
       </c>
       <c r="D47">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E47">
         <v>0.694</v>
@@ -5037,7 +5037,7 @@
         <v>2016</v>
       </c>
       <c r="D48">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E48">
         <v>0.756</v>
@@ -5105,7 +5105,7 @@
         <v>2019</v>
       </c>
       <c r="D49">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E49">
         <v>0.372</v>
@@ -5241,7 +5241,7 @@
         <v>2018</v>
       </c>
       <c r="D51">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E51">
         <v>0.67</v>
@@ -5377,7 +5377,7 @@
         <v>2018</v>
       </c>
       <c r="D53">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53">
         <v>0.714</v>
@@ -5445,7 +5445,7 @@
         <v>2019</v>
       </c>
       <c r="D54">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>0.664</v>
@@ -5513,7 +5513,7 @@
         <v>2018</v>
       </c>
       <c r="D55">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E55">
         <v>0.745</v>
@@ -5649,7 +5649,7 @@
         <v>2015</v>
       </c>
       <c r="D57">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E57">
         <v>0.728</v>
@@ -5921,7 +5921,7 @@
         <v>2012</v>
       </c>
       <c r="D61">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E61">
         <v>0.796</v>
@@ -5989,7 +5989,7 @@
         <v>2013</v>
       </c>
       <c r="D62">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E62">
         <v>0.755</v>
@@ -6057,7 +6057,7 @@
         <v>2010</v>
       </c>
       <c r="D63">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E63">
         <v>0.728</v>
@@ -6125,7 +6125,7 @@
         <v>2014</v>
       </c>
       <c r="D64">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E64">
         <v>0.631</v>
@@ -6193,7 +6193,7 @@
         <v>2010</v>
       </c>
       <c r="D65">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E65">
         <v>0.712</v>
@@ -6261,7 +6261,7 @@
         <v>2017</v>
       </c>
       <c r="D66">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E66">
         <v>0.445</v>
@@ -6329,7 +6329,7 @@
         <v>2019</v>
       </c>
       <c r="D67">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67">
         <v>0.531</v>
@@ -6397,7 +6397,7 @@
         <v>2017</v>
       </c>
       <c r="D68">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E68">
         <v>0.36</v>
@@ -6465,7 +6465,7 @@
         <v>2019</v>
       </c>
       <c r="D69">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E69">
         <v>0.622</v>
@@ -6533,7 +6533,7 @@
         <v>2016</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0.548</v>
@@ -6601,7 +6601,7 @@
         <v>2018</v>
       </c>
       <c r="D71">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E71">
         <v>0.599</v>
@@ -6737,7 +6737,7 @@
         <v>2019</v>
       </c>
       <c r="D73">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E73">
         <v>0.699</v>
@@ -6805,7 +6805,7 @@
         <v>2019</v>
       </c>
       <c r="D74">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E74">
         <v>0.709</v>
@@ -6873,7 +6873,7 @@
         <v>2017</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0.5610000000000001</v>
@@ -6941,7 +6941,7 @@
         <v>2017</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0.673</v>
@@ -7145,7 +7145,7 @@
         <v>2016</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0.708</v>
@@ -7281,7 +7281,7 @@
         <v>2018</v>
       </c>
       <c r="D81">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E81">
         <v>0.702</v>
@@ -7417,7 +7417,7 @@
         <v>2017</v>
       </c>
       <c r="D83">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E83">
         <v>0.332</v>
@@ -7485,7 +7485,7 @@
         <v>2019</v>
       </c>
       <c r="D84">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E84">
         <v>0.432</v>
@@ -7553,7 +7553,7 @@
         <v>2019</v>
       </c>
       <c r="D85">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E85">
         <v>0.319</v>
